--- a/teaching/traditional_assets/database/data/china/china_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/china/china_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ15"/>
+  <dimension ref="A1:AQ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0786</v>
+        <v>-0.0135</v>
       </c>
       <c r="E2">
-        <v>0.0703</v>
+        <v>0.09909999999999999</v>
       </c>
       <c r="F2">
-        <v>1.11</v>
+        <v>0.144</v>
       </c>
       <c r="G2">
-        <v>-0.006942498043220551</v>
+        <v>0.03232375820388581</v>
       </c>
       <c r="H2">
-        <v>-0.006942498043220551</v>
+        <v>0.03223724768740243</v>
       </c>
       <c r="I2">
-        <v>-0.02186958689732389</v>
+        <v>-0.004644307210242689</v>
       </c>
       <c r="J2">
-        <v>-0.01881647368973233</v>
+        <v>-0.004173268756267533</v>
       </c>
       <c r="K2">
-        <v>2370.837</v>
+        <v>836.306</v>
       </c>
       <c r="L2">
-        <v>0.1652579969005199</v>
+        <v>0.06517951711544323</v>
       </c>
       <c r="M2">
-        <v>1410.7398</v>
+        <v>996.6825</v>
       </c>
       <c r="N2">
-        <v>0.05898313469437108</v>
+        <v>0.04668008471410908</v>
       </c>
       <c r="O2">
-        <v>0.5950387141756266</v>
+        <v>1.191767726167216</v>
       </c>
       <c r="P2">
-        <v>923.1398</v>
+        <v>940.2825</v>
       </c>
       <c r="Q2">
-        <v>0.03859654286717847</v>
+        <v>0.04403856469356518</v>
       </c>
       <c r="R2">
-        <v>0.3893729514091437</v>
+        <v>1.124328296102144</v>
       </c>
       <c r="S2">
-        <v>487.6</v>
+        <v>56.40000000000001</v>
       </c>
       <c r="T2">
-        <v>0.3456342551617244</v>
+        <v>0.05658772979359025</v>
       </c>
       <c r="U2">
-        <v>2285.789</v>
+        <v>3705.792</v>
       </c>
       <c r="V2">
-        <v>0.09556900604201554</v>
+        <v>0.1735624780136781</v>
       </c>
       <c r="W2">
-        <v>0.02964129467509656</v>
+        <v>-0.05496394483115037</v>
       </c>
       <c r="X2">
-        <v>0.0524995959992012</v>
+        <v>0.03932619046820344</v>
       </c>
       <c r="Y2">
-        <v>-0.02285830132410464</v>
+        <v>-0.09429013529935382</v>
       </c>
       <c r="Z2">
-        <v>0.039720340561237</v>
+        <v>0.03788566779308367</v>
       </c>
       <c r="AA2">
-        <v>0.0001274824848952155</v>
+        <v>-0.07478860767979752</v>
       </c>
       <c r="AB2">
-        <v>0.05178049206789605</v>
+        <v>0.03911911103520314</v>
       </c>
       <c r="AC2">
-        <v>-0.05205702858546554</v>
+        <v>-0.1142702710959533</v>
       </c>
       <c r="AD2">
-        <v>294279.077</v>
+        <v>289703.405</v>
       </c>
       <c r="AE2">
-        <v>430.0107575228951</v>
+        <v>80.46611698126971</v>
       </c>
       <c r="AF2">
-        <v>294709.0877575229</v>
+        <v>289783.8711169813</v>
       </c>
       <c r="AG2">
-        <v>292423.2987575229</v>
+        <v>286078.0791169812</v>
       </c>
       <c r="AH2">
-        <v>0.9249351173686179</v>
+        <v>0.9313759997864713</v>
       </c>
       <c r="AI2">
-        <v>0.8383495751631775</v>
+        <v>0.8357895637564675</v>
       </c>
       <c r="AJ2">
-        <v>0.924392720101161</v>
+        <v>0.9305487976623281</v>
       </c>
       <c r="AK2">
-        <v>0.837291594456155</v>
+        <v>0.8340154913919946</v>
       </c>
       <c r="AL2">
-        <v>137.048</v>
+        <v>176.522</v>
       </c>
       <c r="AM2">
-        <v>90.29300000000001</v>
+        <v>146.142</v>
       </c>
       <c r="AN2">
-        <v>-1316.031308835433</v>
+        <v>-15492.98919728326</v>
       </c>
       <c r="AO2">
-        <v>-2.895693479656763</v>
+        <v>-0.3887787357949717</v>
       </c>
       <c r="AP2">
-        <v>-1307.732172198697</v>
+        <v>-15299.11113519337</v>
       </c>
       <c r="AQ2">
-        <v>-4.395124760501922</v>
+        <v>-0.4695980621587224</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Shanghai Realway Capital Assets Management Co., Ltd. (SEHK:1835)</t>
+          <t>Entest Group, Inc. (OTCPK:ETNI)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,110 +727,86 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="G3">
-        <v>0.5811518324607329</v>
-      </c>
-      <c r="H3">
-        <v>0.5811518324607329</v>
-      </c>
-      <c r="I3">
-        <v>0.4259452916663608</v>
-      </c>
-      <c r="J3">
-        <v>0.3109089720192414</v>
-      </c>
       <c r="K3">
-        <v>5.09</v>
-      </c>
-      <c r="L3">
-        <v>0.2664921465968586</v>
+        <v>-0.046</v>
       </c>
       <c r="M3">
-        <v>7.12</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.07228426395939086</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>1.398821218074656</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>7.12</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.07228426395939086</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>1.398821218074656</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.1055837563451777</v>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.04554455445544554</v>
       </c>
       <c r="X3">
-        <v>0.0523512353550367</v>
+        <v>0.04090188224246558</v>
+      </c>
+      <c r="Y3">
+        <v>0.004642672212979967</v>
       </c>
       <c r="Z3">
-        <v>16.43400014618079</v>
+        <v>-0</v>
       </c>
       <c r="AA3">
-        <v>5.109478091613132</v>
+        <v>4.399999999999996</v>
       </c>
       <c r="AB3">
-        <v>0.05174844455900165</v>
+        <v>0.03981537028542022</v>
       </c>
       <c r="AC3">
-        <v>5.05772964705413</v>
+        <v>4.360184629714576</v>
       </c>
       <c r="AD3">
-        <v>1.99</v>
+        <v>0.038</v>
       </c>
       <c r="AE3">
-        <v>1.162224645862546</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.152224645862546</v>
+        <v>0.038</v>
       </c>
       <c r="AG3">
-        <v>-7.247775354137454</v>
+        <v>0.038</v>
       </c>
       <c r="AH3">
-        <v>0.03100989335791037</v>
+        <v>0.07900207900207901</v>
       </c>
       <c r="AI3">
-        <v>0.04929030480672235</v>
+        <v>-2.923076923076923</v>
       </c>
       <c r="AJ3">
-        <v>-0.07942573873968645</v>
+        <v>0.07900207900207901</v>
       </c>
       <c r="AK3">
-        <v>-0.1353403224995139</v>
+        <v>-2.923076923076923</v>
       </c>
       <c r="AL3">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.856</v>
-      </c>
-      <c r="AN3">
-        <v>0.2290515653775322</v>
-      </c>
-      <c r="AO3">
-        <v>271.0714285714286</v>
-      </c>
-      <c r="AP3">
-        <v>-0.8342282866180311</v>
-      </c>
-      <c r="AQ3">
-        <v>-8.866822429906541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +817,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Entest Group, Inc. (OTCPK:ETNI)</t>
+          <t>Kunwu Jiuding Investment Holdings Co., Ltd. (SHSE:600053)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -849,86 +825,122 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.194</v>
+      </c>
+      <c r="E4">
+        <v>0.597</v>
+      </c>
+      <c r="G4">
+        <v>0.55848787446505</v>
+      </c>
+      <c r="H4">
+        <v>0.55848787446505</v>
+      </c>
+      <c r="I4">
+        <v>0.4807417974322397</v>
+      </c>
+      <c r="J4">
+        <v>0.3680062302972709</v>
+      </c>
       <c r="K4">
-        <v>0.192</v>
+        <v>102.6</v>
+      </c>
+      <c r="L4">
+        <v>0.3659058487874465</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>2.81</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.002164535510707133</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0.0273879142300195</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>2.81</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.002164535510707133</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0.0273879142300195</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>0</v>
+        <v>57.2</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.04406100754891388</v>
       </c>
       <c r="W4">
-        <v>-0.1536</v>
+        <v>0.3555093555093555</v>
       </c>
       <c r="X4">
-        <v>0.0524995959992012</v>
+        <v>0.04005006979755954</v>
       </c>
       <c r="Y4">
-        <v>-0.2060995959992012</v>
+        <v>0.3154592857117959</v>
       </c>
       <c r="Z4">
-        <v>-0</v>
+        <v>0.9775177881045428</v>
       </c>
       <c r="AA4">
-        <v>0.1739130434782609</v>
+        <v>0.3597326362488793</v>
       </c>
       <c r="AB4">
-        <v>0.05178049206789605</v>
+        <v>0.03932249428989298</v>
       </c>
       <c r="AC4">
-        <v>0.1221325514103648</v>
+        <v>0.3204101419589863</v>
       </c>
       <c r="AD4">
-        <v>0.021</v>
+        <v>61.7</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.021</v>
+        <v>61.7</v>
       </c>
       <c r="AG4">
-        <v>0.021</v>
+        <v>4.5</v>
       </c>
       <c r="AH4">
-        <v>0.03671328671328671</v>
+        <v>0.04537098316052651</v>
       </c>
       <c r="AI4">
-        <v>-1.75</v>
+        <v>0.1303062302006336</v>
       </c>
       <c r="AJ4">
-        <v>0.03671328671328671</v>
+        <v>0.003454364013203347</v>
       </c>
       <c r="AK4">
-        <v>-1.75</v>
+        <v>0.01080951237088638</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>5.31</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-6.69</v>
+      </c>
+      <c r="AN4">
+        <v>0.4550147492625369</v>
+      </c>
+      <c r="AO4">
+        <v>25.38606403013183</v>
+      </c>
+      <c r="AP4">
+        <v>0.0331858407079646</v>
+      </c>
+      <c r="AQ4">
+        <v>-20.14947683109118</v>
       </c>
     </row>
     <row r="5">
@@ -939,7 +951,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kunwu Jiuding Investment Holdings Co., Ltd. (SHSE:600053)</t>
+          <t>Noah Holdings Limited (NYSE:NOAH)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -948,121 +960,118 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.061</v>
+        <v>0.106</v>
       </c>
       <c r="E5">
-        <v>0.569</v>
+        <v>0.118</v>
+      </c>
+      <c r="F5">
+        <v>0.144</v>
       </c>
       <c r="G5">
-        <v>0.3447963800904977</v>
+        <v>0.3167567567567567</v>
       </c>
       <c r="H5">
-        <v>0.3447963800904977</v>
+        <v>0.3167567567567567</v>
       </c>
       <c r="I5">
-        <v>0.4570135746606335</v>
+        <v>0.3419189545454131</v>
       </c>
       <c r="J5">
-        <v>0.3796200646966676</v>
+        <v>0.2684169620657576</v>
       </c>
       <c r="K5">
-        <v>71.40000000000001</v>
+        <v>137.1</v>
       </c>
       <c r="L5">
-        <v>0.6461538461538462</v>
+        <v>0.2964324324324324</v>
       </c>
       <c r="M5">
-        <v>70.40000000000001</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.04446128584059619</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.9859943977591037</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>56.1</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.03543008715422508</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.7857142857142857</v>
+        <v>-0</v>
       </c>
       <c r="S5">
-        <v>14.3</v>
-      </c>
-      <c r="T5">
-        <v>0.2031250000000001</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>85.59999999999999</v>
+        <v>677</v>
       </c>
       <c r="V5">
-        <v>0.05406088164708853</v>
+        <v>0.2298733489524974</v>
       </c>
       <c r="W5">
-        <v>0.2403231235274318</v>
+        <v>0.1275823562255723</v>
       </c>
       <c r="X5">
-        <v>0.052860763859365</v>
+        <v>0.03938346322627698</v>
       </c>
       <c r="Y5">
-        <v>0.1874623596680668</v>
+        <v>0.08819889299929534</v>
       </c>
       <c r="Z5">
-        <v>0.3987053801773067</v>
+        <v>0.7543477944877971</v>
       </c>
       <c r="AA5">
-        <v>0.1513565622178186</v>
+        <v>0.202479743337419</v>
       </c>
       <c r="AB5">
-        <v>0.05171353895913276</v>
+        <v>0.03917739116363961</v>
       </c>
       <c r="AC5">
-        <v>0.09964302325868588</v>
+        <v>0.1633023521737794</v>
       </c>
       <c r="AD5">
-        <v>83.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>51.81241761373215</v>
       </c>
       <c r="AF5">
-        <v>83.90000000000001</v>
+        <v>51.81241761373215</v>
       </c>
       <c r="AG5">
-        <v>-1.699999999999989</v>
+        <v>-625.1875823862679</v>
       </c>
       <c r="AH5">
-        <v>0.05032087806633479</v>
+        <v>0.01728859919603102</v>
       </c>
       <c r="AI5">
-        <v>0.2209639188833289</v>
+        <v>0.04259094840590741</v>
       </c>
       <c r="AJ5">
-        <v>-0.001074792944300429</v>
+        <v>-0.2694875796342939</v>
       </c>
       <c r="AK5">
-        <v>-0.005780346820809209</v>
+        <v>-1.158801098872715</v>
       </c>
       <c r="AL5">
-        <v>7.09</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>-24.61</v>
+        <v>-7.85</v>
       </c>
       <c r="AN5">
-        <v>1.635477582846004</v>
-      </c>
-      <c r="AO5">
-        <v>7.122708039492243</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>-0.03313840155945397</v>
+        <v>-3.370283462998749</v>
       </c>
       <c r="AQ5">
-        <v>-2.052011377488826</v>
+        <v>-19.68152866242038</v>
       </c>
     </row>
     <row r="6">
@@ -1073,7 +1082,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Shaanxi International Trust Co.,Ltd. (SZSE:000563)</t>
+          <t>Shaanxi International Trust Co., Ltd. (SZSE:000563)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1082,46 +1091,46 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.149</v>
+        <v>0.144</v>
       </c>
       <c r="E6">
-        <v>0.107</v>
+        <v>0.08019999999999999</v>
       </c>
       <c r="G6">
-        <v>0.4432904029912755</v>
+        <v>0.3895161290322581</v>
       </c>
       <c r="H6">
-        <v>0.4432904029912755</v>
+        <v>0.3862007168458781</v>
       </c>
       <c r="I6">
-        <v>0.5209804736186124</v>
+        <v>0.5101553166069295</v>
       </c>
       <c r="J6">
-        <v>0.3998222239398654</v>
+        <v>0.3832078576058234</v>
       </c>
       <c r="K6">
-        <v>75.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="L6">
-        <v>0.315330286663897</v>
+        <v>0.290621266427718</v>
       </c>
       <c r="M6">
-        <v>32.7</v>
+        <v>31.1</v>
       </c>
       <c r="N6">
-        <v>0.01296590007930214</v>
+        <v>0.0135861255515268</v>
       </c>
       <c r="O6">
-        <v>0.4308300395256917</v>
+        <v>0.3196300102774923</v>
       </c>
       <c r="P6">
-        <v>32.7</v>
+        <v>31.1</v>
       </c>
       <c r="Q6">
-        <v>0.01296590007930214</v>
+        <v>0.0135861255515268</v>
       </c>
       <c r="R6">
-        <v>0.4308300395256917</v>
+        <v>0.3196300102774923</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1130,31 +1139,31 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>69.3</v>
+        <v>181.9</v>
       </c>
       <c r="V6">
-        <v>0.0274781919111816</v>
+        <v>0.07946354462452493</v>
       </c>
       <c r="W6">
-        <v>0.05056292052494838</v>
+        <v>0.06465116279069767</v>
       </c>
       <c r="X6">
-        <v>0.05157419919816474</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="Y6">
-        <v>-0.001011278673216355</v>
+        <v>0.02565946855228357</v>
       </c>
       <c r="Z6">
-        <v>0.1708546280522431</v>
+        <v>0.2331963502124399</v>
       </c>
       <c r="AA6">
-        <v>0.06831147735826633</v>
+        <v>0.0893626737664064</v>
       </c>
       <c r="AB6">
-        <v>0.05157419919816474</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="AC6">
-        <v>0.01673727816010159</v>
+        <v>0.0503709795279923</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1166,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>-69.3</v>
+        <v>-181.9</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1175,28 +1184,28 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>-0.02825457658906511</v>
+        <v>-0.08632308276385726</v>
       </c>
       <c r="AK6">
-        <v>-0.04826913700633837</v>
+        <v>-0.1186330137611687</v>
       </c>
       <c r="AL6">
-        <v>11</v>
+        <v>37.8</v>
       </c>
       <c r="AM6">
-        <v>11</v>
+        <v>37.8</v>
       </c>
       <c r="AN6">
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>11.4</v>
+        <v>4.518518518518519</v>
       </c>
       <c r="AP6">
-        <v>-0.5465299684542587</v>
+        <v>-1.06374269005848</v>
       </c>
       <c r="AQ6">
-        <v>11.4</v>
+        <v>4.518518518518519</v>
       </c>
     </row>
     <row r="7">
@@ -1207,7 +1216,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Shanghai Greencourt Investment Group Co., Ltd. (SHSE:900919)</t>
+          <t>Wins Finance Holdings Inc. (OTCPK:WINS.F)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1216,118 +1225,109 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.3</v>
+        <v>-0.309</v>
       </c>
       <c r="G7">
-        <v>-0.1288515406162465</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>-0.1288515406162465</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1552873532954121</v>
+        <v>0.01006670652746594</v>
       </c>
       <c r="J7">
-        <v>0.1477433934869317</v>
+        <v>0.01006670652746594</v>
       </c>
       <c r="K7">
-        <v>14.6</v>
+        <v>-12</v>
       </c>
       <c r="L7">
-        <v>2.044817927170868</v>
+        <v>-2.45398773006135</v>
       </c>
       <c r="M7">
-        <v>1.51</v>
+        <v>-0</v>
       </c>
       <c r="N7">
-        <v>0.002558888324012879</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>0.1034246575342466</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1.51</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.002558888324012879</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>0.1034246575342466</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
-        <v>15</v>
+        <v>0.039</v>
       </c>
       <c r="V7">
-        <v>0.02541942043721403</v>
+        <v>0.0003277310924369748</v>
       </c>
       <c r="W7">
-        <v>0.1517671517671517</v>
+        <v>-0.05594405594405594</v>
       </c>
       <c r="X7">
-        <v>0.05207685684351866</v>
+        <v>0.03900271054788296</v>
       </c>
       <c r="Y7">
-        <v>0.09969029492363309</v>
+        <v>-0.09494676649193889</v>
       </c>
       <c r="Z7">
-        <v>0.0662852686039761</v>
+        <v>0.0227225342165598</v>
       </c>
       <c r="AA7">
-        <v>0.009793210521744205</v>
+        <v>0.0002287410835184106</v>
       </c>
       <c r="AB7">
-        <v>0.05163036085164593</v>
+        <v>0.03899684940863014</v>
       </c>
       <c r="AC7">
-        <v>-0.04183715032990173</v>
+        <v>-0.03876810832511173</v>
       </c>
       <c r="AD7">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>1.016241487353788</v>
+        <v>0.0588690254034578</v>
       </c>
       <c r="AF7">
-        <v>12.21624148735379</v>
+        <v>0.0588690254034578</v>
       </c>
       <c r="AG7">
-        <v>-2.783758512646212</v>
+        <v>0.0198690254034578</v>
       </c>
       <c r="AH7">
-        <v>0.0202821053890015</v>
+        <v>0.0004944530876645316</v>
       </c>
       <c r="AI7">
-        <v>0.106305612933731</v>
+        <v>0.0002998032413592775</v>
       </c>
       <c r="AJ7">
-        <v>-0.004739794877111622</v>
+        <v>0.0001669387268374239</v>
       </c>
       <c r="AK7">
-        <v>-0.02786092101951761</v>
+        <v>0.0001012074096325257</v>
       </c>
       <c r="AL7">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>-11.78</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>6.658739595719381</v>
-      </c>
-      <c r="AO7">
-        <v>0.4204545454545455</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>-1.655028842239127</v>
-      </c>
-      <c r="AQ7">
-        <v>-0.04711375212224109</v>
+        <v>0.3257217279255377</v>
       </c>
     </row>
     <row r="8">
@@ -1353,34 +1353,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0008144670442524368</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0006227302298999297</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>112.7</v>
+        <v>120.3</v>
       </c>
       <c r="L8">
-        <v>0.7039350405996253</v>
+        <v>0.7147950089126559</v>
       </c>
       <c r="M8">
-        <v>55.9068</v>
+        <v>52.8</v>
       </c>
       <c r="N8">
-        <v>0.1062261067832035</v>
+        <v>0.1220527045769764</v>
       </c>
       <c r="O8">
-        <v>0.4960674356699201</v>
+        <v>0.4389027431421446</v>
       </c>
       <c r="P8">
-        <v>55.9068</v>
+        <v>52.8</v>
       </c>
       <c r="Q8">
-        <v>0.1062261067832035</v>
+        <v>0.1220527045769764</v>
       </c>
       <c r="R8">
-        <v>0.4960674356699201</v>
+        <v>0.4389027431421446</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1389,67 +1389,61 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>66.90000000000001</v>
+        <v>56.5</v>
       </c>
       <c r="V8">
-        <v>0.1271138134144024</v>
+        <v>0.1306056403143782</v>
       </c>
       <c r="W8">
-        <v>0.08249762096479028</v>
+        <v>0.08753547260423489</v>
       </c>
       <c r="X8">
-        <v>0.05441738431245947</v>
+        <v>0.04118459676018324</v>
       </c>
       <c r="Y8">
-        <v>0.02808023665233081</v>
+        <v>0.04635087584405165</v>
       </c>
       <c r="Z8">
-        <v>0.1198776796193049</v>
+        <v>0.1229633959231388</v>
       </c>
       <c r="AA8">
-        <v>7.465145498919985e-05</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.05186445499446977</v>
+        <v>0.03920155703351331</v>
       </c>
       <c r="AC8">
-        <v>-0.05178980353948057</v>
+        <v>-0.03920155703351331</v>
       </c>
       <c r="AD8">
-        <v>61.3</v>
+        <v>42.6</v>
       </c>
       <c r="AE8">
-        <v>0.3280191310759243</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>61.62801913107592</v>
+        <v>42.6</v>
       </c>
       <c r="AG8">
-        <v>-5.271980868924082</v>
+        <v>-13.9</v>
       </c>
       <c r="AH8">
-        <v>0.1048223883293717</v>
+        <v>0.08964646464646464</v>
       </c>
       <c r="AI8">
-        <v>0.04291859919856493</v>
+        <v>0.02901907356948229</v>
       </c>
       <c r="AJ8">
-        <v>-0.0101184210356215</v>
+        <v>-0.03319799379030331</v>
       </c>
       <c r="AK8">
-        <v>-0.003850893331073104</v>
+        <v>-0.009847679773290824</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>312.7551020408163</v>
-      </c>
-      <c r="AP8">
-        <v>-26.89786157614327</v>
       </c>
     </row>
     <row r="9">
@@ -1469,10 +1463,13 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.09619999999999999</v>
+        <v>-0.021</v>
       </c>
       <c r="E9">
-        <v>0.0336</v>
+        <v>-0.0578</v>
+      </c>
+      <c r="F9">
+        <v>-0.00893</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1481,34 +1478,34 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.003593574243943384</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.002303844573690468</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1762.1</v>
+        <v>1515.9</v>
       </c>
       <c r="L9">
-        <v>0.2286036766518338</v>
+        <v>0.2398120610010758</v>
       </c>
       <c r="M9">
-        <v>534.303</v>
+        <v>572.4675</v>
       </c>
       <c r="N9">
-        <v>0.06160887863937734</v>
+        <v>0.07911489932143893</v>
       </c>
       <c r="O9">
-        <v>0.303219454060496</v>
+        <v>0.3776419948545418</v>
       </c>
       <c r="P9">
-        <v>534.303</v>
+        <v>572.4675</v>
       </c>
       <c r="Q9">
-        <v>0.06160887863937734</v>
+        <v>0.07911489932143893</v>
       </c>
       <c r="R9">
-        <v>0.303219454060496</v>
+        <v>0.3776419948545418</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1517,67 +1514,61 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1957.5</v>
+        <v>2476.6</v>
       </c>
       <c r="V9">
-        <v>0.2257134620928221</v>
+        <v>0.3422656476734062</v>
       </c>
       <c r="W9">
-        <v>0.08858646745059398</v>
+        <v>0.07430809501867629</v>
       </c>
       <c r="X9">
-        <v>0.4052474453971631</v>
+        <v>0.4306104880499722</v>
       </c>
       <c r="Y9">
-        <v>-0.3166609779465691</v>
+        <v>-0.3563023930312958</v>
       </c>
       <c r="Z9">
-        <v>0.05241565800881558</v>
+        <v>0.04378447719344909</v>
       </c>
       <c r="AA9">
-        <v>0.0001207575292800251</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.05217778611474556</v>
+        <v>0.04364324200177391</v>
       </c>
       <c r="AC9">
-        <v>-0.05205702858546554</v>
+        <v>-0.04364324200177391</v>
       </c>
       <c r="AD9">
-        <v>126197.1</v>
+        <v>127250.6</v>
       </c>
       <c r="AE9">
-        <v>127.0018518513</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>126324.1018518513</v>
+        <v>127250.6</v>
       </c>
       <c r="AG9">
-        <v>124366.6018518513</v>
+        <v>124774</v>
       </c>
       <c r="AH9">
-        <v>0.9357576421848202</v>
+        <v>0.9461960865960525</v>
       </c>
       <c r="AI9">
-        <v>0.8251957445772281</v>
+        <v>0.8238727078965803</v>
       </c>
       <c r="AJ9">
-        <v>0.9348123981650338</v>
+        <v>0.9451866867560691</v>
       </c>
       <c r="AK9">
-        <v>0.8229315501531131</v>
+        <v>0.8210025687996125</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>2376.593220338983</v>
-      </c>
-      <c r="AP9">
-        <v>2342.120562181757</v>
       </c>
     </row>
     <row r="10">
@@ -1588,7 +1579,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wins Finance Holdings Inc. (NasdaqCM:WINS)</t>
+          <t>China Huarong Asset Management Co., Ltd. (SEHK:2799)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1596,6 +1587,12 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D10">
+        <v>0.0064</v>
+      </c>
+      <c r="F10">
+        <v>0.852</v>
+      </c>
       <c r="G10">
         <v>0</v>
       </c>
@@ -1603,100 +1600,97 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.003925739719937605</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.003925739719937605</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>4.29</v>
+        <v>-14.1</v>
       </c>
       <c r="L10">
-        <v>0.1958904109589041</v>
+        <v>-0.002731181962576996</v>
       </c>
       <c r="M10">
-        <v>-0</v>
+        <v>308.6</v>
       </c>
       <c r="N10">
-        <v>-0</v>
+        <v>0.07120935920806702</v>
       </c>
       <c r="O10">
-        <v>-0</v>
+        <v>-21.88652482269504</v>
       </c>
       <c r="P10">
-        <v>-0</v>
+        <v>280.3</v>
       </c>
       <c r="Q10">
-        <v>-0</v>
+        <v>0.06467914253409328</v>
       </c>
       <c r="R10">
-        <v>-0</v>
+        <v>-19.87943262411348</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>28.30000000000001</v>
+      </c>
+      <c r="T10">
+        <v>0.09170447180816595</v>
       </c>
       <c r="U10">
-        <v>2.48</v>
+        <v>77.5</v>
       </c>
       <c r="V10">
-        <v>0.01136571952337305</v>
+        <v>0.0178831021990447</v>
       </c>
       <c r="W10">
-        <v>0.0154372076286434</v>
+        <v>-0.0006818544506719409</v>
       </c>
       <c r="X10">
-        <v>0.05236594994698596</v>
+        <v>0.8731911383166553</v>
       </c>
       <c r="Y10">
-        <v>-0.03692874231834256</v>
+        <v>-0.8738729927673272</v>
       </c>
       <c r="Z10">
-        <v>0.07342460679132734</v>
+        <v>0.02739878699361654</v>
       </c>
       <c r="AA10">
-        <v>0.0002882458953015141</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.0533787262552421</v>
+        <v>0.04499737851777889</v>
       </c>
       <c r="AC10">
-        <v>-0.05309048035994059</v>
+        <v>-0.04499737851777889</v>
       </c>
       <c r="AD10">
-        <v>6.77</v>
+        <v>162342.6</v>
       </c>
       <c r="AE10">
-        <v>0.3451315006668323</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>7.115131500666832</v>
+        <v>162342.6</v>
       </c>
       <c r="AG10">
-        <v>4.635131500666832</v>
+        <v>162265.1</v>
       </c>
       <c r="AH10">
-        <v>0.03157857820412641</v>
+        <v>0.9739993028402958</v>
       </c>
       <c r="AI10">
-        <v>0.02583420693662797</v>
+        <v>0.8722094472620993</v>
       </c>
       <c r="AJ10">
-        <v>0.02080072145470007</v>
+        <v>0.9739872075909309</v>
       </c>
       <c r="AK10">
-        <v>0.01698253894682483</v>
+        <v>0.872156215651127</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>43.6774193548387</v>
-      </c>
-      <c r="AP10">
-        <v>29.90407419785053</v>
       </c>
     </row>
     <row r="11">
@@ -1707,7 +1701,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>China Huarong Asset Management Co., Ltd. (SEHK:2799)</t>
+          <t>Shanghai Greencourt Investment Group Co., Ltd. (SHSE:900919)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1716,118 +1710,118 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.129</v>
-      </c>
-      <c r="E11">
-        <v>-0.15</v>
-      </c>
-      <c r="F11">
-        <v>1.11</v>
+        <v>-0.4</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>-0.7220338983050847</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>-0.7220338983050847</v>
       </c>
       <c r="I11">
-        <v>0.008298760307880201</v>
+        <v>-1.383029279534616</v>
       </c>
       <c r="J11">
-        <v>0.004149380153940101</v>
+        <v>-1.266842701505804</v>
       </c>
       <c r="K11">
-        <v>636.2</v>
+        <v>8.49</v>
       </c>
       <c r="L11">
-        <v>0.0994559779889945</v>
+        <v>2.877966101694915</v>
       </c>
       <c r="M11">
-        <v>702.5</v>
+        <v>0.805</v>
       </c>
       <c r="N11">
-        <v>0.11386291067637</v>
+        <v>0.001675686927560367</v>
       </c>
       <c r="O11">
-        <v>1.104212511788746</v>
+        <v>0.09481743227326267</v>
       </c>
       <c r="P11">
-        <v>229.2</v>
+        <v>0.805</v>
       </c>
       <c r="Q11">
-        <v>0.03714929413099503</v>
+        <v>0.001675686927560367</v>
       </c>
       <c r="R11">
-        <v>0.3602640679031751</v>
+        <v>0.09481743227326267</v>
       </c>
       <c r="S11">
-        <v>473.3</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.6737366548042705</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>73.8</v>
+        <v>6.08</v>
       </c>
       <c r="V11">
-        <v>0.01196168371233609</v>
+        <v>0.01265611990008327</v>
       </c>
       <c r="W11">
-        <v>0.02964129467509656</v>
+        <v>0.08323529411764706</v>
       </c>
       <c r="X11">
-        <v>0.7132712753845484</v>
+        <v>0.03915855620791769</v>
       </c>
       <c r="Y11">
-        <v>-0.6836299807094518</v>
+        <v>0.04407673790972937</v>
       </c>
       <c r="Z11">
-        <v>0.03072325990043664</v>
+        <v>0.02966622523756249</v>
       </c>
       <c r="AA11">
-        <v>0.0001274824848952155</v>
+        <v>-0.03758244092343333</v>
       </c>
       <c r="AB11">
-        <v>0.05344941394616866</v>
+        <v>0.03900910514280115</v>
       </c>
       <c r="AC11">
-        <v>-0.05332193146127345</v>
+        <v>-0.07659154606623447</v>
       </c>
       <c r="AD11">
-        <v>167857.8</v>
+        <v>2.36</v>
       </c>
       <c r="AE11">
-        <v>279.0724503127597</v>
+        <v>1.23968187313559</v>
       </c>
       <c r="AF11">
-        <v>168136.8724503127</v>
+        <v>3.59968187313559</v>
       </c>
       <c r="AG11">
-        <v>168063.0724503128</v>
+        <v>-2.480318126864411</v>
       </c>
       <c r="AH11">
-        <v>0.9646043180514107</v>
+        <v>0.007437364130497769</v>
       </c>
       <c r="AI11">
-        <v>0.8721942438422458</v>
+        <v>0.03119316981387256</v>
       </c>
       <c r="AJ11">
-        <v>0.9645893254567853</v>
+        <v>-0.005189822099695016</v>
       </c>
       <c r="AK11">
-        <v>0.8721452971531146</v>
+        <v>-0.0226886694542598</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>0.628</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>-4.162</v>
       </c>
       <c r="AN11">
-        <v>1541.393939393939</v>
+        <v>-0.6758304696449026</v>
+      </c>
+      <c r="AO11">
+        <v>-7.261146496815286</v>
       </c>
       <c r="AP11">
-        <v>1543.278902206729</v>
+        <v>0.7102858324353982</v>
+      </c>
+      <c r="AQ11">
+        <v>1.095627102354637</v>
       </c>
     </row>
     <row r="12">
@@ -1838,7 +1832,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Longevity Acquisition Corporation (NasdaqCM:LOAC)</t>
+          <t>Jupai Holdings Limited (NYSE:JP)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1846,8 +1840,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D12">
+        <v>-0.0135</v>
+      </c>
+      <c r="G12">
+        <v>-0.2527821939586646</v>
+      </c>
+      <c r="H12">
+        <v>-0.2527821939586646</v>
+      </c>
+      <c r="I12">
+        <v>-0.1108713184423476</v>
+      </c>
+      <c r="J12">
+        <v>-0.1108713184423476</v>
+      </c>
       <c r="K12">
-        <v>-0.117</v>
+        <v>-9.35</v>
+      </c>
+      <c r="L12">
+        <v>-0.1486486486486487</v>
       </c>
       <c r="M12">
         <v>-0</v>
@@ -1871,64 +1883,70 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0.14</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="V12">
-        <v>0.007142857142857143</v>
+        <v>1.589285714285714</v>
       </c>
       <c r="W12">
-        <v>-0.0234</v>
+        <v>-0.05398383371824481</v>
       </c>
       <c r="X12">
-        <v>0.0520697226552795</v>
+        <v>0.04237865483519107</v>
       </c>
       <c r="Y12">
-        <v>-0.0754697226552795</v>
+        <v>-0.09636248855343588</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1.010132972256466</v>
       </c>
       <c r="AA12">
-        <v>-0.1431472081218274</v>
+        <v>-0.1119947744361617</v>
       </c>
       <c r="AB12">
-        <v>0.05153957969481836</v>
+        <v>0.03995422168951034</v>
       </c>
       <c r="AC12">
-        <v>-0.1946867878166458</v>
+        <v>-0.1519489961256721</v>
       </c>
       <c r="AD12">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>9.369029650118325</v>
       </c>
       <c r="AF12">
-        <v>0.4</v>
+        <v>9.369029650118325</v>
       </c>
       <c r="AG12">
-        <v>0.26</v>
+        <v>-88.53097034988168</v>
       </c>
       <c r="AH12">
-        <v>0.02</v>
+        <v>0.1320157496348508</v>
       </c>
       <c r="AI12">
-        <v>0.07407407407407407</v>
+        <v>0.05226239952547286</v>
       </c>
       <c r="AJ12">
-        <v>0.01309164149043303</v>
+        <v>3.2873293906497</v>
       </c>
       <c r="AK12">
-        <v>0.04942965779467681</v>
+        <v>-1.088018017795705</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>-0.885</v>
+        <v>-2.89</v>
+      </c>
+      <c r="AN12">
+        <v>-0</v>
+      </c>
+      <c r="AP12">
+        <v>37.35483981007666</v>
       </c>
       <c r="AQ12">
-        <v>0.6372881355932203</v>
+        <v>3.598615916955017</v>
       </c>
     </row>
     <row r="13">
@@ -1939,7 +1957,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Forise International Limited (SGX:I5H)</t>
+          <t>Longevity Acquisition Corporation (NasdaqCM:LOAC)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1947,35 +1965,17 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D13">
-        <v>-0.6859999999999999</v>
-      </c>
-      <c r="G13">
-        <v>0.9617834394904459</v>
-      </c>
-      <c r="H13">
-        <v>0.9617834394904459</v>
-      </c>
-      <c r="I13">
-        <v>-5.161583538106554</v>
-      </c>
-      <c r="J13">
-        <v>-5.161583538106554</v>
-      </c>
       <c r="K13">
-        <v>-0.958</v>
-      </c>
-      <c r="L13">
-        <v>-6.101910828025478</v>
+        <v>-0.506</v>
       </c>
       <c r="M13">
-        <v>-0</v>
+        <v>28.1</v>
       </c>
       <c r="N13">
-        <v>-0</v>
+        <v>0.8977635782747604</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>-55.53359683794466</v>
       </c>
       <c r="P13">
         <v>-0</v>
@@ -1987,76 +1987,70 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>28.1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>2.65</v>
+        <v>0.007</v>
       </c>
       <c r="V13">
-        <v>0.5602536997885834</v>
+        <v>0.0002236421725239617</v>
       </c>
       <c r="W13">
-        <v>-0.1364672364672365</v>
+        <v>-0.1012</v>
       </c>
       <c r="X13">
-        <v>0.05448912492250219</v>
+        <v>0.04026521179480614</v>
       </c>
       <c r="Y13">
-        <v>-0.1909563613897386</v>
+        <v>-0.1414652117948061</v>
       </c>
       <c r="Z13">
-        <v>0.03582967194997505</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>-0.1849378449127494</v>
+        <v>-0.1669201520912547</v>
       </c>
       <c r="AB13">
-        <v>0.05769911427070268</v>
+        <v>0.03911833063652435</v>
       </c>
       <c r="AC13">
-        <v>-0.242636959183452</v>
+        <v>-0.2060384827277791</v>
       </c>
       <c r="AD13">
-        <v>0.176</v>
+        <v>1.79</v>
       </c>
       <c r="AE13">
-        <v>0.3918430774136449</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>0.5678430774136449</v>
+        <v>1.79</v>
       </c>
       <c r="AG13">
-        <v>-2.082156922586355</v>
+        <v>1.783</v>
       </c>
       <c r="AH13">
-        <v>0.107183823513863</v>
+        <v>0.05409489271683288</v>
       </c>
       <c r="AI13">
-        <v>0.0893137925078582</v>
+        <v>0.2636229749631812</v>
       </c>
       <c r="AJ13">
-        <v>-0.7863596375281273</v>
+        <v>0.05389474956926519</v>
       </c>
       <c r="AK13">
-        <v>-0.5615547581476223</v>
+        <v>0.2628630399528232</v>
       </c>
       <c r="AL13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AM13">
-        <v>-0.113</v>
-      </c>
-      <c r="AN13">
-        <v>-0.2437673130193906</v>
-      </c>
-      <c r="AO13">
-        <v>-103</v>
-      </c>
-      <c r="AP13">
-        <v>2.883873853997722</v>
+        <v>-0.379</v>
       </c>
       <c r="AQ13">
-        <v>9.11504424778761</v>
+        <v>2.316622691292876</v>
       </c>
     </row>
     <row r="14">
@@ -2067,7 +2061,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Puhui Wealth Investment Management Co., Ltd. (NasdaqCM:PHCF)</t>
+          <t>Anxin Trust Co., Ltd (SHSE:600816)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2075,23 +2069,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D14">
+        <v>-0.509</v>
+      </c>
       <c r="G14">
-        <v>-0.7641509433962265</v>
+        <v>1.103166496424923</v>
       </c>
       <c r="H14">
-        <v>-0.7641509433962265</v>
+        <v>1.103166496424923</v>
       </c>
       <c r="I14">
-        <v>-0.5168899010475012</v>
+        <v>-50.95358847253158</v>
       </c>
       <c r="J14">
-        <v>-0.5168899010475012</v>
+        <v>-50.95358847253158</v>
       </c>
       <c r="K14">
-        <v>-2.46</v>
+        <v>-1098.9</v>
       </c>
       <c r="L14">
-        <v>-0.7735849056603773</v>
+        <v>-112.247191011236</v>
       </c>
       <c r="M14">
         <v>-0</v>
@@ -2115,73 +2112,73 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>2.01</v>
+        <v>31</v>
       </c>
       <c r="V14">
-        <v>0.08170731707317072</v>
+        <v>0.02552070470074915</v>
       </c>
       <c r="W14">
-        <v>-0.3133757961783439</v>
+        <v>-0.6464878220967173</v>
       </c>
       <c r="X14">
-        <v>0.05580707582650964</v>
+        <v>0.03923878566768389</v>
       </c>
       <c r="Y14">
-        <v>-0.3691828720048536</v>
+        <v>-0.6857266077644012</v>
       </c>
       <c r="Z14">
-        <v>0.4229539262887665</v>
+        <v>0.005530544902055068</v>
       </c>
       <c r="AA14">
-        <v>-0.2186206131070527</v>
+        <v>-0.2818011089681714</v>
       </c>
       <c r="AB14">
-        <v>0.05240835204428597</v>
+        <v>0.03907170648771428</v>
       </c>
       <c r="AC14">
-        <v>-0.2710289651513386</v>
+        <v>-0.3208728154558857</v>
       </c>
       <c r="AD14">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <v>2.768549426655269</v>
+        <v>13.47815573042014</v>
       </c>
       <c r="AF14">
-        <v>4.288549426655269</v>
+        <v>13.47815573042014</v>
       </c>
       <c r="AG14">
-        <v>2.278549426655269</v>
+        <v>-17.52184426957986</v>
       </c>
       <c r="AH14">
-        <v>0.1484515322426765</v>
+        <v>0.0109741047481865</v>
       </c>
       <c r="AI14">
-        <v>0.266559110639898</v>
+        <v>0.01983312091003518</v>
       </c>
       <c r="AJ14">
-        <v>0.08477203849384995</v>
+        <v>-0.01463595387679744</v>
       </c>
       <c r="AK14">
-        <v>0.1618454684217136</v>
+        <v>-0.02701577923148983</v>
       </c>
       <c r="AL14">
-        <v>0.2</v>
+        <v>132.6</v>
       </c>
       <c r="AM14">
-        <v>0.137</v>
+        <v>132.6</v>
       </c>
       <c r="AN14">
-        <v>-1.583333333333333</v>
+        <v>-0</v>
       </c>
       <c r="AO14">
-        <v>-12.8</v>
+        <v>-3.76395173453997</v>
       </c>
       <c r="AP14">
-        <v>-2.373488986099238</v>
+        <v>0.03535909163655781</v>
       </c>
       <c r="AQ14">
-        <v>-18.68613138686131</v>
+        <v>-3.76395173453997</v>
       </c>
     </row>
     <row r="15">
@@ -2192,7 +2189,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Anxin Trust Co., Ltd (SHSE:600816)</t>
+          <t>Puhui Wealth Investment Management Co., Ltd. (NasdaqCM:PHCF)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2201,115 +2198,605 @@
         </is>
       </c>
       <c r="G15">
-        <v>0.785003111387679</v>
+        <v>-1.949541284403669</v>
       </c>
       <c r="H15">
-        <v>0.785003111387679</v>
+        <v>-1.949541284403669</v>
       </c>
       <c r="I15">
-        <v>1.794756967075176</v>
+        <v>-1.782621132179428</v>
       </c>
       <c r="J15">
-        <v>1.794756967075176</v>
+        <v>-1.782621132179428</v>
       </c>
       <c r="K15">
-        <v>-308.1</v>
+        <v>-4.05</v>
       </c>
       <c r="L15">
-        <v>0.9586185438705664</v>
+        <v>-1.857798165137615</v>
       </c>
       <c r="M15">
-        <v>6.3</v>
+        <v>-0</v>
       </c>
       <c r="N15">
-        <v>0.001806451612903226</v>
+        <v>-0</v>
       </c>
       <c r="O15">
-        <v>-0.02044790652385589</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>6.3</v>
+        <v>-0</v>
       </c>
       <c r="Q15">
-        <v>0.001806451612903226</v>
+        <v>-0</v>
       </c>
       <c r="R15">
-        <v>-0.02044790652385589</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
       <c r="U15">
-        <v>0.008999999999999999</v>
+        <v>0.744</v>
       </c>
       <c r="V15">
-        <v>2.580645161290322e-06</v>
+        <v>0.02735294117647059</v>
       </c>
       <c r="W15">
-        <v>-0.1526078557630393</v>
+        <v>-0.3266129032258064</v>
       </c>
       <c r="X15">
-        <v>0.05209514146109027</v>
+        <v>0.04114535481461891</v>
       </c>
       <c r="Y15">
-        <v>-0.2047029972241295</v>
+        <v>-0.3677582580404253</v>
       </c>
       <c r="Z15">
-        <v>-0.1299309562940825</v>
+        <v>0.1645212201390917</v>
       </c>
       <c r="AA15">
-        <v>-0.2331944890475448</v>
+        <v>-0.2932790037118886</v>
       </c>
       <c r="AB15">
-        <v>0.05163236087109763</v>
+        <v>0.03991109800521427</v>
       </c>
       <c r="AC15">
-        <v>-0.2848268499186424</v>
+        <v>-0.3331901017171029</v>
       </c>
       <c r="AD15">
-        <v>56.9</v>
+        <v>1.29</v>
       </c>
       <c r="AE15">
-        <v>17.92444608980739</v>
+        <v>1.340570340755772</v>
       </c>
       <c r="AF15">
-        <v>74.8244460898074</v>
+        <v>2.630570340755772</v>
       </c>
       <c r="AG15">
-        <v>74.81544608980739</v>
+        <v>1.886570340755772</v>
       </c>
       <c r="AH15">
-        <v>0.0210043883487195</v>
+        <v>0.08818370921865268</v>
       </c>
       <c r="AI15">
-        <v>0.0399335378507524</v>
+        <v>0.2654307724287003</v>
       </c>
       <c r="AJ15">
-        <v>0.02100191496851547</v>
+        <v>0.06486052905702433</v>
       </c>
       <c r="AK15">
-        <v>0.03992892637243141</v>
+        <v>0.2058098362446239</v>
       </c>
       <c r="AL15">
-        <v>117.4</v>
+        <v>0.184</v>
       </c>
       <c r="AM15">
-        <v>117.4</v>
+        <v>0.109</v>
       </c>
       <c r="AN15">
-        <v>-0.09934526407682234</v>
+        <v>-0.3853046594982079</v>
       </c>
       <c r="AO15">
-        <v>-4.912265758091993</v>
+        <v>-24.56521739130435</v>
       </c>
       <c r="AP15">
-        <v>-0.1306249604361543</v>
+        <v>-0.5634917385769928</v>
       </c>
       <c r="AQ15">
-        <v>-4.912265758091993</v>
+        <v>-41.46788990825688</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Puyi Inc. (NasdaqGM:PUYI)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="G16">
+        <v>-0.3983606557377049</v>
+      </c>
+      <c r="H16">
+        <v>-0.3983606557377049</v>
+      </c>
+      <c r="I16">
+        <v>-0.3843430901388445</v>
+      </c>
+      <c r="J16">
+        <v>-0.3843430901388445</v>
+      </c>
+      <c r="K16">
+        <v>-4.66</v>
+      </c>
+      <c r="L16">
+        <v>-0.2546448087431694</v>
+      </c>
+      <c r="M16">
+        <v>-0</v>
+      </c>
+      <c r="N16">
+        <v>-0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>-0</v>
+      </c>
+      <c r="Q16">
+        <v>-0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>40.5</v>
+      </c>
+      <c r="V16">
+        <v>0.1088417092179522</v>
+      </c>
+      <c r="W16">
+        <v>-0.07993138936535163</v>
+      </c>
+      <c r="X16">
+        <v>0.03918125065536748</v>
+      </c>
+      <c r="Y16">
+        <v>-0.1191126400207191</v>
+      </c>
+      <c r="Z16">
+        <v>2.874017784845763</v>
+      </c>
+      <c r="AA16">
+        <v>-1.104608876541618</v>
+      </c>
+      <c r="AB16">
+        <v>0.03905323295948974</v>
+      </c>
+      <c r="AC16">
+        <v>-1.143662109501107</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>3.167392747704273</v>
+      </c>
+      <c r="AF16">
+        <v>3.167392747704273</v>
+      </c>
+      <c r="AG16">
+        <v>-37.33260725229573</v>
+      </c>
+      <c r="AH16">
+        <v>0.008440362282778297</v>
+      </c>
+      <c r="AI16">
+        <v>0.05700092430259168</v>
+      </c>
+      <c r="AJ16">
+        <v>-0.1115180512232004</v>
+      </c>
+      <c r="AK16">
+        <v>-2.477708511181132</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>-1.77</v>
+      </c>
+      <c r="AN16">
+        <v>-0</v>
+      </c>
+      <c r="AP16">
+        <v>6.110083020015668</v>
+      </c>
+      <c r="AQ16">
+        <v>4.282485875706215</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Yunhong International (NasdaqCM:ZGYH)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="K17">
+        <v>-0.859</v>
+      </c>
+      <c r="M17">
+        <v>-0</v>
+      </c>
+      <c r="N17">
+        <v>-0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>-0</v>
+      </c>
+      <c r="Q17">
+        <v>-0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0.519</v>
+      </c>
+      <c r="V17">
+        <v>0.005838020247469066</v>
+      </c>
+      <c r="W17">
+        <v>-42.95</v>
+      </c>
+      <c r="X17">
+        <v>0.03903753434003639</v>
+      </c>
+      <c r="Y17">
+        <v>-42.98903753434004</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>-2.209302325581396</v>
+      </c>
+      <c r="AB17">
+        <v>0.03901311200454397</v>
+      </c>
+      <c r="AC17">
+        <v>-2.24831543758594</v>
+      </c>
+      <c r="AD17">
+        <v>0.183</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0.183</v>
+      </c>
+      <c r="AG17">
+        <v>-0.336</v>
+      </c>
+      <c r="AH17">
+        <v>0.002054264000987842</v>
+      </c>
+      <c r="AI17">
+        <v>0.0353077368319506</v>
+      </c>
+      <c r="AJ17">
+        <v>-0.00379386658235852</v>
+      </c>
+      <c r="AK17">
+        <v>-0.07204116638078903</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>-0.23</v>
+      </c>
+      <c r="AQ17">
+        <v>1.652173913043478</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Newborn Acquisition Corp. (NasdaqCM:NBAC)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="K18">
+        <v>-0.784</v>
+      </c>
+      <c r="M18">
+        <v>-0</v>
+      </c>
+      <c r="N18">
+        <v>-0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>-0</v>
+      </c>
+      <c r="Q18">
+        <v>-0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0.302</v>
+      </c>
+      <c r="V18">
+        <v>0.007568922305764411</v>
+      </c>
+      <c r="W18">
+        <v>-37.33333333333334</v>
+      </c>
+      <c r="X18">
+        <v>0.0389916942384141</v>
+      </c>
+      <c r="Y18">
+        <v>-37.37232502757175</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>-6.256684491978607</v>
+      </c>
+      <c r="AB18">
+        <v>0.0389916942384141</v>
+      </c>
+      <c r="AC18">
+        <v>-6.295676186217022</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>-0.302</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>-0.007626647810495479</v>
+      </c>
+      <c r="AK18">
+        <v>-0.06428267347807577</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>-0.394</v>
+      </c>
+      <c r="AQ18">
+        <v>2.969543147208122</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CITIC Capital Acquisition Corp. (NYSE:CCAC)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="K19">
+        <v>-0.06900000000000001</v>
+      </c>
+      <c r="M19">
+        <v>-0</v>
+      </c>
+      <c r="N19">
+        <v>-0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>-0</v>
+      </c>
+      <c r="Q19">
+        <v>-0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>1.14</v>
+      </c>
+      <c r="V19">
+        <v>0.003152654867256637</v>
+      </c>
+      <c r="X19">
+        <v>0.0389916942384141</v>
+      </c>
+      <c r="AB19">
+        <v>0.0389916942384141</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>-1.14</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>-0.003162625534039838</v>
+      </c>
+      <c r="AK19">
+        <v>-0.2953367875647668</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Brilliant Acquisition Corporation (NasdaqCM:BRLI)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="K20">
+        <v>-0.06</v>
+      </c>
+      <c r="M20">
+        <v>-0</v>
+      </c>
+      <c r="N20">
+        <v>-0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>-0</v>
+      </c>
+      <c r="Q20">
+        <v>-0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0.861</v>
+      </c>
+      <c r="V20">
+        <v>0.04392857142857143</v>
+      </c>
+      <c r="X20">
+        <v>0.0392689177101299</v>
+      </c>
+      <c r="AB20">
+        <v>0.03911989143388193</v>
+      </c>
+      <c r="AD20">
+        <v>0.244</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0.244</v>
+      </c>
+      <c r="AG20">
+        <v>-0.617</v>
+      </c>
+      <c r="AH20">
+        <v>0.01229590808304777</v>
+      </c>
+      <c r="AI20">
+        <v>0.04652936689549962</v>
+      </c>
+      <c r="AJ20">
+        <v>-0.03250276563240794</v>
+      </c>
+      <c r="AK20">
+        <v>-0.1407711613050422</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>-0.002</v>
+      </c>
+      <c r="AQ20">
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>
